--- a/documentacao/Tecnologia da Informação/Metodologia Scrum quase pronta.xlsx
+++ b/documentacao/Tecnologia da Informação/Metodologia Scrum quase pronta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Visão Geral - Requisitos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="135">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -417,6 +417,21 @@
   </si>
   <si>
     <t>Armazenar os Dados Coletados</t>
+  </si>
+  <si>
+    <t>Detalhe</t>
+  </si>
+  <si>
+    <t>Site deve notificar moradores e acionar os bombeiros</t>
+  </si>
+  <si>
+    <t>Gestão e Arquitetura do Projeto</t>
+  </si>
+  <si>
+    <t>Configurar o arduino para medir a temp. e umid. do ambiente e acionar os irrigadores</t>
+  </si>
+  <si>
+    <t>Criar o modelo do banco e colocar ele no Azure</t>
   </si>
 </sst>
 </file>
@@ -663,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -736,92 +751,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1200,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
@@ -1227,7 +1245,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
@@ -1998,475 +2016,434 @@
       <c r="B3" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="40" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="37" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="43" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
         <v>3</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
         <v>4</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="42" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
         <v>5</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="38" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
         <v>6</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="38" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="24"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
         <v>7</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="38" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="17">
         <v>8</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="24"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="17">
         <v>9</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="42" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="17">
         <v>10</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="17">
         <v>11</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="C9:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="C16:E18"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="F8:K8"/>
     <mergeCell ref="C5:E7"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:P5"/>
@@ -2483,6 +2460,47 @@
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="F10:K10"/>
     <mergeCell ref="L7:P7"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="C16:E18"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="C9:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="F12:K12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2491,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:Z39"/>
+  <dimension ref="B4:AD39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,35 +2521,35 @@
       <c r="B4" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="40"/>
+      <c r="M4" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38" t="s">
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
       <c r="V4" s="19" t="s">
         <v>124</v>
       </c>
@@ -2550,64 +2568,64 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="47">
         <v>5</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="36">
+      <c r="J6" s="49"/>
+      <c r="K6" s="43">
         <v>20</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="38">
+      <c r="L6" s="43"/>
+      <c r="M6" s="40">
         <v>5</v>
       </c>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38" t="s">
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
       <c r="V6" s="25"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -2618,29 +2636,29 @@
       <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="38">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="40">
         <v>8</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="25"/>
@@ -2651,29 +2669,29 @@
       <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="38">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="40">
         <v>7</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38" t="s">
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
       <c r="V8" s="25"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -2682,25 +2700,25 @@
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="26"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -2711,35 +2729,35 @@
       <c r="B10" s="18">
         <v>4</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="47">
         <v>4</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="36">
+      <c r="J10" s="49"/>
+      <c r="K10" s="43">
         <v>10</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="38">
+      <c r="L10" s="43"/>
+      <c r="M10" s="40">
         <v>2</v>
       </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38" t="s">
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -2750,29 +2768,29 @@
       <c r="B11" s="18">
         <v>5</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="38">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="40">
         <v>4</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38" t="s">
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -2783,29 +2801,29 @@
       <c r="B12" s="18">
         <v>6</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="38">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="40">
         <v>4</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38" t="s">
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2814,25 +2832,25 @@
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -2846,32 +2864,32 @@
       <c r="C14" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="47">
         <v>5</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="47">
         <v>8</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="59">
+      <c r="L14" s="49"/>
+      <c r="M14" s="56">
         <v>4</v>
       </c>
-      <c r="N14" s="60"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="38" t="s">
+      <c r="N14" s="57"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="25"/>
@@ -2882,29 +2900,29 @@
       <c r="B15" s="18">
         <v>8</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="59">
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56">
         <v>4</v>
       </c>
-      <c r="N15" s="60"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="38" t="s">
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="25"/>
@@ -2913,787 +2931,771 @@
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>9</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="47">
         <v>3</v>
       </c>
-      <c r="J17" s="48"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="47">
         <v>14</v>
       </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="59">
+      <c r="L17" s="49"/>
+      <c r="M17" s="56">
         <v>6</v>
       </c>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="38" t="s">
+      <c r="N17" s="57"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="28"/>
       <c r="Y17" s="25"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>10</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="59">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="56">
         <v>2</v>
       </c>
-      <c r="N18" s="60"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="62" t="s">
+      <c r="N18" s="57"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <v>11</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="59">
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56">
         <v>6</v>
       </c>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="38" t="s">
+      <c r="N19" s="57"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="25"/>
       <c r="Y19" s="25"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="V20" s="27"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F21" s="27"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38" t="s">
+      <c r="N24" s="40"/>
+      <c r="O24" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38" t="s">
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38" t="s">
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="21" t="s">
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="W24" s="21" t="s">
+      <c r="AA24" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="X24" s="21" t="s">
+      <c r="AB24" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="Y24" s="21" t="s">
+      <c r="AC24" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="Z24" s="21" t="s">
+      <c r="AD24" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <v>1</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="47">
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="47">
         <v>5</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="36">
+      <c r="N26" s="49"/>
+      <c r="O26" s="43">
         <v>20</v>
       </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="38">
+      <c r="P26" s="43"/>
+      <c r="Q26" s="40">
         <v>5</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38" t="s">
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
       <c r="Z26" s="25"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="25"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="20">
         <v>2</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="38">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="40">
         <v>8</v>
       </c>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38" t="s">
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="1"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
       <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <v>3</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="38">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="40">
         <v>7</v>
       </c>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38" t="s">
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
       <c r="Z28" s="25"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="25"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
       <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="20">
         <v>4</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="47">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="47">
         <v>4</v>
       </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="36">
+      <c r="N30" s="49"/>
+      <c r="O30" s="43">
         <v>10</v>
       </c>
-      <c r="L30" s="36"/>
-      <c r="M30" s="38">
+      <c r="P30" s="43"/>
+      <c r="Q30" s="40">
         <v>2</v>
       </c>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38" t="s">
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="25"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="25"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="20">
         <v>5</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="38">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="40">
         <v>4</v>
       </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38" t="s">
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="25"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="25"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32" s="20">
         <v>6</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="38">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="40">
         <v>4</v>
       </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38" t="s">
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="25"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="25"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="26"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
       <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B34" s="20">
         <v>7</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="47">
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="47">
         <v>5</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="47">
+      <c r="N34" s="49"/>
+      <c r="O34" s="47">
         <v>8</v>
       </c>
-      <c r="L34" s="48"/>
-      <c r="M34" s="59">
+      <c r="P34" s="49"/>
+      <c r="Q34" s="56">
         <v>4</v>
       </c>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="38" t="s">
+      <c r="R34" s="57"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="1"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
       <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B35" s="20">
         <v>8</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="59">
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="56">
         <v>4</v>
       </c>
-      <c r="N35" s="60"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="38" t="s">
+      <c r="R35" s="57"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="1"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
       <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
       <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="20">
         <v>9</v>
       </c>
       <c r="C37" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="47">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="47">
         <v>3</v>
       </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="47">
+      <c r="N37" s="49"/>
+      <c r="O37" s="47">
         <v>14</v>
       </c>
-      <c r="L37" s="48"/>
-      <c r="M37" s="59">
+      <c r="P37" s="49"/>
+      <c r="Q37" s="56">
         <v>6</v>
       </c>
-      <c r="N37" s="60"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="38" t="s">
+      <c r="R37" s="57"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="25"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
       <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="20">
         <v>10</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="59">
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="56">
         <v>2</v>
       </c>
-      <c r="N38" s="60"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="62" t="s">
+      <c r="R38" s="57"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
       <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" s="20">
         <v>11</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="59">
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="56">
         <v>6</v>
       </c>
-      <c r="N39" s="60"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="38" t="s">
+      <c r="R39" s="57"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
       <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="C37:H39"/>
-    <mergeCell ref="I37:J39"/>
-    <mergeCell ref="K37:L39"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P37:U37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:U38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:U39"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P36:U36"/>
-    <mergeCell ref="C34:H35"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="P34:U34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:U35"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:U33"/>
-    <mergeCell ref="C30:H32"/>
-    <mergeCell ref="I30:J32"/>
-    <mergeCell ref="K30:L32"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:U30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:U31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:U32"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:U29"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="C26:H28"/>
-    <mergeCell ref="I26:J28"/>
-    <mergeCell ref="K26:L28"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:U26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:U27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:U28"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:U25"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:U24"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H8"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K10:L12"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L8"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P16:U16"/>
-    <mergeCell ref="P15:U15"/>
-    <mergeCell ref="I16:J16"/>
+  <mergeCells count="129">
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L35"/>
+    <mergeCell ref="I37:L39"/>
+    <mergeCell ref="I36:L36"/>
     <mergeCell ref="C17:H19"/>
     <mergeCell ref="K17:L19"/>
     <mergeCell ref="M17:O17"/>
@@ -3715,6 +3717,105 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L8"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H8"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K10:L12"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="C26:H28"/>
+    <mergeCell ref="M26:N28"/>
+    <mergeCell ref="O26:P28"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="C30:H32"/>
+    <mergeCell ref="M30:N32"/>
+    <mergeCell ref="O30:P32"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="C34:H35"/>
+    <mergeCell ref="M34:N35"/>
+    <mergeCell ref="O34:P35"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="C37:H39"/>
+    <mergeCell ref="M37:N39"/>
+    <mergeCell ref="O37:P39"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:Y39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
